--- a/docs/SimpleProjectPlan.xlsx
+++ b/docs/SimpleProjectPlan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorys\sandstorm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Projektplan</t>
   </si>
@@ -27,65 +32,59 @@
     <t>Arbeitspaket</t>
   </si>
   <si>
-    <t>Mitarbeiter</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>T1: Aufbau Hardware</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Sascha</t>
-  </si>
-  <si>
-    <t>T2: Testing / Weiteres</t>
-  </si>
-  <si>
-    <t>Modelbildung, Quadtrees, Partikelsysteme &gt;&gt; Einlesen</t>
-  </si>
-  <si>
-    <t>XNA, Modelbildung, Quadtrees &gt;&gt; Einlesen</t>
-  </si>
-  <si>
-    <t>Timo</t>
-  </si>
-  <si>
-    <t>Maxim</t>
-  </si>
-  <si>
-    <t>Quadtree Renderer bauen</t>
-  </si>
-  <si>
-    <t>T3: API Festlegen</t>
-  </si>
-  <si>
-    <t>Tiefenbild einbinden / vorbereiten /dll. Bauen</t>
-  </si>
-  <si>
-    <t>Partikelsysteme &gt;&gt; einlesen</t>
-  </si>
-  <si>
-    <t>einheitliche Umgebung Modelldaten / API IN OUT</t>
-  </si>
-  <si>
-    <t>Partikelsystem implementieren / wie?</t>
-  </si>
-  <si>
-    <t>Anforderungen an das System</t>
-  </si>
-  <si>
-    <t>Umgebung: Kinect 4W, VS2010, C#, Beamer als Ausgabe; SVN/ GIT</t>
+    <t>Programmiersprache: C#? - Entwicklungsumgebung: VS2010 || VS2012 - Grafik API: DirectX?</t>
+  </si>
+  <si>
+    <t>Terrain (Timo)</t>
+  </si>
+  <si>
+    <t>Kinect &amp; Beamer (Alex)</t>
+  </si>
+  <si>
+    <t>Patches aus Höhendaten generieren</t>
+  </si>
+  <si>
+    <t>Quad- oder Octtree</t>
+  </si>
+  <si>
+    <t>Frustum Culling</t>
+  </si>
+  <si>
+    <t>Partikelsystem (Maxim + Sascha + Timo + Alex)</t>
+  </si>
+  <si>
+    <t>Höhendaten auslesen &amp; aufbereiten</t>
+  </si>
+  <si>
+    <t>Beamer kalibrierung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung + Präsentation</t>
+  </si>
+  <si>
+    <t>Emmiter</t>
+  </si>
+  <si>
+    <t>Forces</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Ausarbeitung?</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,8 +114,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,25 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,13 +147,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -182,34 +209,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,172 +582,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AC28"/>
+  <dimension ref="C2:CU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="2.33203125" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="2.33203125" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.33203125" customWidth="1"/>
-    <col min="20" max="20" width="2.33203125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="2.33203125" customWidth="1"/>
-    <col min="23" max="23" width="2.33203125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="2.33203125" customWidth="1"/>
-    <col min="26" max="26" width="2.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="2.33203125" style="1" customWidth="1"/>
-    <col min="30" max="58" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
+    <col min="4" max="4" width="2.375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="2.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="1" customWidth="1"/>
+    <col min="13" max="18" width="2.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="2.375" style="1" customWidth="1"/>
+    <col min="20" max="25" width="2.375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="2.375" style="1" customWidth="1"/>
+    <col min="27" max="32" width="2.375" customWidth="1"/>
+    <col min="33" max="33" width="2.375" style="1" customWidth="1"/>
+    <col min="34" max="46" width="2.375" customWidth="1"/>
+    <col min="47" max="47" width="2.375" style="1" customWidth="1"/>
+    <col min="48" max="53" width="2.375" customWidth="1"/>
+    <col min="54" max="54" width="2.375" style="1" customWidth="1"/>
+    <col min="55" max="67" width="2.375" customWidth="1"/>
+    <col min="68" max="68" width="2.375" style="1" customWidth="1"/>
+    <col min="69" max="73" width="2.375" customWidth="1"/>
+    <col min="74" max="74" width="2.375" style="3" customWidth="1"/>
+    <col min="75" max="75" width="2.375" style="1" customWidth="1"/>
+    <col min="76" max="81" width="2.375" customWidth="1"/>
+    <col min="82" max="82" width="2.375" style="1" customWidth="1"/>
+    <col min="83" max="88" width="2.375" customWidth="1"/>
+    <col min="89" max="89" width="2.375" style="1" customWidth="1"/>
+    <col min="90" max="95" width="2.375" customWidth="1"/>
+    <col min="96" max="96" width="2.375" style="1" customWidth="1"/>
+    <col min="97" max="98" width="2.375" customWidth="1"/>
+    <col min="99" max="99" width="2.375" style="3" customWidth="1"/>
+    <col min="100" max="118" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:29">
+    <row r="2" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:29" ht="82" customHeight="1">
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="3:96" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41368</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="L3" s="5">
+        <v>41375</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="S3" s="5">
+        <v>41382</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>41389</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>41396</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>41410</v>
+      </c>
+      <c r="BB3" s="6">
+        <v>41417</v>
+      </c>
+      <c r="BP3" s="6">
+        <v>41431</v>
+      </c>
+      <c r="BW3" s="6">
+        <v>41438</v>
+      </c>
+      <c r="CD3" s="6">
+        <v>41445</v>
+      </c>
+      <c r="CK3" s="6">
+        <v>41452</v>
+      </c>
+      <c r="CR3" s="6">
+        <v>41459</v>
+      </c>
+    </row>
+    <row r="4" spans="3:96" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CR4" s="1"/>
+    </row>
+    <row r="5" spans="3:96" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CR5" s="1"/>
+    </row>
+    <row r="6" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CR7" s="1"/>
+    </row>
+    <row r="8" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:96" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CR10" s="1"/>
+    </row>
+    <row r="11" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CR12" s="1"/>
+    </row>
+    <row r="13" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+    </row>
+    <row r="14" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CR14" s="1"/>
+    </row>
+    <row r="15" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+    </row>
+    <row r="17" spans="3:96" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CR17" s="1"/>
+    </row>
+    <row r="18" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
+    </row>
+    <row r="19" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="13"/>
+      <c r="BR19" s="13"/>
+      <c r="BS19" s="13"/>
+      <c r="BT19" s="13"/>
+      <c r="BU19" s="13"/>
+      <c r="BV19" s="13"/>
+      <c r="BW19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CR19" s="1"/>
+    </row>
+    <row r="20" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="3:29" s="5" customFormat="1">
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="3:29">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="3:29">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="3:29">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="3:29">
-      <c r="C8" t="s">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+    </row>
+    <row r="21" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CR21" s="1"/>
+    </row>
+    <row r="22" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+    </row>
+    <row r="23" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CR23" s="1"/>
+    </row>
+    <row r="24" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+    </row>
+    <row r="25" spans="3:96" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="3:29">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+      <c r="D25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CR25" s="1"/>
+    </row>
+    <row r="26" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="10"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="10"/>
+      <c r="CJ26" s="10"/>
+    </row>
+    <row r="27" spans="3:96" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="13"/>
+      <c r="BR27" s="13"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="13"/>
+      <c r="BU27" s="13"/>
+      <c r="BV27" s="13"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="14"/>
+      <c r="BY27" s="14"/>
+      <c r="BZ27" s="14"/>
+      <c r="CA27" s="14"/>
+      <c r="CB27" s="14"/>
+      <c r="CC27" s="14"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="14"/>
+      <c r="CF27" s="14"/>
+      <c r="CG27" s="14"/>
+      <c r="CH27" s="14"/>
+      <c r="CI27" s="14"/>
+      <c r="CJ27" s="14"/>
+      <c r="CK27" s="1"/>
+      <c r="CR27" s="1"/>
+    </row>
+    <row r="28" spans="3:96" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
+      <c r="BX28" s="10"/>
+      <c r="BY28" s="10"/>
+      <c r="BZ28" s="10"/>
+      <c r="CA28" s="10"/>
+      <c r="CB28" s="10"/>
+      <c r="CC28" s="10"/>
+      <c r="CE28" s="10"/>
+      <c r="CF28" s="10"/>
+      <c r="CG28" s="10"/>
+      <c r="CH28" s="10"/>
+      <c r="CI28" s="10"/>
+      <c r="CJ28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
